--- a/Docu/Modelo_ee_Informacion.xlsx
+++ b/Docu/Modelo_ee_Informacion.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE289AD-A308-4CEF-BB28-1659E85A2D0D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAEDE4A-6AC6-4706-B5A6-18812AD74DF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15975" windowHeight="8070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15975" windowHeight="8070" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -2668,7 +2668,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E29C37B-5817-4534-BAF5-69D149A11458}" name="TablaDinámica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E29C37B-5817-4534-BAF5-69D149A11458}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
@@ -2819,13 +2819,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla4" displayName="Tabla4" ref="A2:M99" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="A2:M99" xr:uid="{00000000-0009-0000-0100-000004000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Participe"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:M99" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Codigo"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Tabla"/>
@@ -3231,7 +3225,7 @@
       </c>
       <c r="C6" s="8">
         <f ca="1">NOW()</f>
-        <v>44982.746812731479</v>
+        <v>44983.911836342595</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -3282,7 +3276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -4162,7 +4156,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4723,8 +4717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B16" sqref="B15:B16"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53:D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4797,7 +4791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4826,7 +4820,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4852,7 +4846,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4878,7 +4872,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4904,7 +4898,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4930,7 +4924,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4956,7 +4950,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4982,7 +4976,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5008,7 +5002,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5034,7 +5028,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5060,7 +5054,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5086,7 +5080,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5115,7 +5109,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5144,7 +5138,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5170,7 +5164,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5196,7 +5190,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5222,7 +5216,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5248,7 +5242,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5274,7 +5268,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5303,7 +5297,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5329,7 +5323,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5355,7 +5349,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -5381,7 +5375,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -5410,7 +5404,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5436,7 +5430,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5462,7 +5456,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5488,7 +5482,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5514,7 +5508,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5540,7 +5534,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5569,7 +5563,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5595,7 +5589,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -5621,7 +5615,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5647,7 +5641,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5673,7 +5667,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5702,7 +5696,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5728,7 +5722,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5754,7 +5748,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5780,7 +5774,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5806,7 +5800,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5832,7 +5826,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5861,7 +5855,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5887,7 +5881,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5913,7 +5907,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5939,7 +5933,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5965,7 +5959,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5994,7 +5988,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -6020,7 +6014,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -6046,7 +6040,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -6072,7 +6066,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -6098,7 +6092,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -6127,7 +6121,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -6156,7 +6150,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -6188,7 +6182,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -6220,7 +6214,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -6246,7 +6240,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -6272,7 +6266,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -6298,7 +6292,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -6324,7 +6318,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -6350,7 +6344,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -6376,7 +6370,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -6402,7 +6396,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -6428,7 +6422,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -6454,7 +6448,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -6480,7 +6474,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -6506,7 +6500,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -6532,7 +6526,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -6558,7 +6552,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -6584,7 +6578,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -6610,7 +6604,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -6636,7 +6630,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -6662,7 +6656,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -6688,7 +6682,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6714,7 +6708,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -6740,7 +6734,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6766,7 +6760,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -6792,7 +6786,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -6818,7 +6812,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -6844,7 +6838,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -6870,7 +6864,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -6896,7 +6890,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -6922,7 +6916,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -6951,7 +6945,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -6980,7 +6974,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -7006,7 +7000,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -7032,7 +7026,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -7058,7 +7052,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -7084,7 +7078,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -7110,7 +7104,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -7136,7 +7130,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -7162,7 +7156,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -7188,7 +7182,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -7214,7 +7208,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>

--- a/Docu/Modelo_ee_Informacion.xlsx
+++ b/Docu/Modelo_ee_Informacion.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAEDE4A-6AC6-4706-B5A6-18812AD74DF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AD4122-66D5-4FB8-99FB-0D8DA804D5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15975" windowHeight="8070" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1070,7 +1079,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyBorder="1"/>
@@ -1083,7 +1092,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2784,7 +2792,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla2" displayName="Tabla2" ref="A2:E59" totalsRowShown="0" tableBorderDxfId="3">
   <autoFilter ref="A2:E59" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState ref="A3:E59">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E59">
     <sortCondition descending="1" ref="D2:D59"/>
   </sortState>
   <tableColumns count="5">
@@ -2801,7 +2809,7 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:G11" totalsRowShown="0" tableBorderDxfId="2">
   <autoFilter ref="A2:G11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A3:G10">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G10">
     <sortCondition ref="A2:A10"/>
   </sortState>
   <tableColumns count="7">
@@ -3179,15 +3187,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3195,7 +3203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3203,7 +3211,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
@@ -3211,7 +3219,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
@@ -3219,16 +3227,16 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="8">
         <f ca="1">NOW()</f>
-        <v>44983.911836342595</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>44989.770842361111</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
@@ -3236,7 +3244,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
@@ -3244,7 +3252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
@@ -3252,7 +3260,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
@@ -3280,25 +3288,25 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3315,7 +3323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
@@ -3329,7 +3337,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6</v>
       </c>
@@ -3343,7 +3351,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -3357,7 +3365,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -3371,7 +3379,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -3385,7 +3393,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12</v>
       </c>
@@ -3399,7 +3407,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>13</v>
       </c>
@@ -3413,7 +3421,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>17</v>
       </c>
@@ -3427,7 +3435,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -3441,7 +3449,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -3455,7 +3463,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -3469,7 +3477,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -3483,7 +3491,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>27</v>
       </c>
@@ -3497,7 +3505,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>28</v>
       </c>
@@ -3511,7 +3519,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>29</v>
       </c>
@@ -3525,7 +3533,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>33</v>
       </c>
@@ -3539,7 +3547,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>34</v>
       </c>
@@ -3553,7 +3561,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>37</v>
       </c>
@@ -3567,7 +3575,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>39</v>
       </c>
@@ -3581,7 +3589,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>40</v>
       </c>
@@ -3595,7 +3603,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>42</v>
       </c>
@@ -3609,7 +3617,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>43</v>
       </c>
@@ -3623,7 +3631,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>44</v>
       </c>
@@ -3637,7 +3645,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>45</v>
       </c>
@@ -3651,7 +3659,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>46</v>
       </c>
@@ -3665,7 +3673,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>47</v>
       </c>
@@ -3679,7 +3687,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>48</v>
       </c>
@@ -3693,7 +3701,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>50</v>
       </c>
@@ -3707,7 +3715,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>51</v>
       </c>
@@ -3721,7 +3729,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>52</v>
       </c>
@@ -3735,7 +3743,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>53</v>
       </c>
@@ -3749,7 +3757,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>54</v>
       </c>
@@ -3763,7 +3771,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>55</v>
       </c>
@@ -3777,7 +3785,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>57</v>
       </c>
@@ -3794,7 +3802,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -3808,7 +3816,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -3822,7 +3830,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -3836,7 +3844,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -3850,7 +3858,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>14</v>
       </c>
@@ -3864,7 +3872,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>15</v>
       </c>
@@ -3878,7 +3886,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>19</v>
       </c>
@@ -3892,7 +3900,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>20</v>
       </c>
@@ -3906,7 +3914,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>26</v>
       </c>
@@ -3920,7 +3928,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>31</v>
       </c>
@@ -3934,7 +3942,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>32</v>
       </c>
@@ -3948,7 +3956,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>35</v>
       </c>
@@ -3965,7 +3973,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>36</v>
       </c>
@@ -3979,7 +3987,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>38</v>
       </c>
@@ -3993,7 +4001,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>41</v>
       </c>
@@ -4007,7 +4015,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>49</v>
       </c>
@@ -4021,7 +4029,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>56</v>
       </c>
@@ -4038,7 +4046,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>8</v>
       </c>
@@ -4055,7 +4063,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>11</v>
       </c>
@@ -4072,7 +4080,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>16</v>
       </c>
@@ -4089,7 +4097,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>18</v>
       </c>
@@ -4106,7 +4114,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>25</v>
       </c>
@@ -4123,7 +4131,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>30</v>
       </c>
@@ -4159,29 +4167,29 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4204,7 +4212,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4227,7 +4235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4250,7 +4258,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4274,7 +4282,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4297,7 +4305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4320,7 +4328,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4343,7 +4351,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4366,7 +4374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4389,7 +4397,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4431,23 +4439,23 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>271</v>
       </c>
@@ -4461,8 +4469,8 @@
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>272</v>
       </c>
       <c r="B5" t="s">
@@ -4478,233 +4486,233 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6">
         <v>44</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6">
         <v>427</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6">
         <v>11</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6">
         <v>471</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7">
         <v>226</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7">
         <v>49</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7">
         <v>11</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7">
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8">
         <v>18</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8">
         <v>113</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8">
         <v>6</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9">
         <v>256</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9">
         <v>63</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9">
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10">
         <v>220</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10">
         <v>113</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10">
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11">
         <v>7</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11">
         <v>19</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11">
         <v>235</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11">
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12">
         <v>19</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12">
         <v>12</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12">
         <v>1873</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12">
         <v>224</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12">
         <v>31</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12">
         <v>2097</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13">
         <v>6</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13">
         <v>6</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13">
         <v>106</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13">
         <v>78</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13">
         <v>12</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13">
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14">
         <v>16</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14">
         <v>11</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14">
         <v>5</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15">
         <v>47</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15">
         <v>50</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15">
         <v>2778</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15">
         <v>1313</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15">
         <v>97</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15">
         <v>4091</v>
       </c>
     </row>
@@ -4717,40 +4725,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53:D82"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:13" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4791,7 +4799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4820,7 +4828,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4846,7 +4854,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4872,7 +4880,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4898,7 +4906,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4924,7 +4932,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4950,7 +4958,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4976,7 +4984,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5002,7 +5010,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5028,7 +5036,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5054,7 +5062,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5080,7 +5088,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5109,7 +5117,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5138,7 +5146,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5164,7 +5172,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5190,7 +5198,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5216,7 +5224,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5242,7 +5250,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5268,7 +5276,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5297,7 +5305,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5323,7 +5331,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5349,7 +5357,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -5375,7 +5383,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -5404,7 +5412,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5430,7 +5438,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5456,7 +5464,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5482,7 +5490,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5508,7 +5516,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5534,7 +5542,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5563,7 +5571,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5589,7 +5597,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -5615,7 +5623,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5641,7 +5649,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5667,7 +5675,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5696,7 +5704,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5722,7 +5730,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5748,7 +5756,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5774,7 +5782,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5800,7 +5808,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5826,7 +5834,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5855,7 +5863,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5881,7 +5889,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5907,7 +5915,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5933,7 +5941,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5959,7 +5967,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5988,7 +5996,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -6014,7 +6022,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -6040,7 +6048,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -6066,7 +6074,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -6092,7 +6100,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -6121,7 +6129,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -6150,7 +6158,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -6182,7 +6190,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -6214,7 +6222,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -6240,7 +6248,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -6266,7 +6274,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -6292,7 +6300,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -6318,7 +6326,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -6344,7 +6352,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -6370,7 +6378,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -6396,7 +6404,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -6422,7 +6430,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -6448,7 +6456,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -6474,7 +6482,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -6500,7 +6508,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -6526,7 +6534,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -6552,7 +6560,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -6578,7 +6586,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -6604,7 +6612,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -6630,7 +6638,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -6656,7 +6664,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -6682,7 +6690,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6708,7 +6716,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -6734,7 +6742,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6760,7 +6768,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -6786,7 +6794,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -6812,7 +6820,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -6838,7 +6846,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -6864,7 +6872,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -6890,7 +6898,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -6916,7 +6924,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -6945,7 +6953,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -6974,7 +6982,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -7000,7 +7008,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -7026,7 +7034,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -7052,7 +7060,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -7078,7 +7086,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -7104,7 +7112,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -7130,7 +7138,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -7156,7 +7164,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -7182,7 +7190,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -7208,7 +7216,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -7234,7 +7242,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -7263,7 +7271,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7292,7 +7300,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -7321,7 +7329,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -7350,7 +7358,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -7396,21 +7404,21 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -7424,7 +7432,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7438,7 +7446,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7452,7 +7460,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7466,7 +7474,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7480,7 +7488,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7494,7 +7502,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7508,7 +7516,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -7522,7 +7530,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -7536,7 +7544,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -7550,7 +7558,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -7564,7 +7572,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -7578,7 +7586,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -7592,7 +7600,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -7606,7 +7614,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>

--- a/Docu/Modelo_ee_Informacion.xlsx
+++ b/Docu/Modelo_ee_Informacion.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAEDE4A-6AC6-4706-B5A6-18812AD74DF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3FB1F9-3033-4396-8BDF-4853FF9A4FF8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15975" windowHeight="8070" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,13 +17,13 @@
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="4" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="307">
   <si>
     <t>Conceptos</t>
   </si>
@@ -727,9 +727,6 @@
     <t>No Socio. Utiliza los servicios de la organización</t>
   </si>
   <si>
-    <t>1,1</t>
-  </si>
-  <si>
     <t>Conformidad ceder imagen</t>
   </si>
   <si>
@@ -920,6 +917,33 @@
   </si>
   <si>
     <t>Cargo de la asociación</t>
+  </si>
+  <si>
+    <t>Horario</t>
+  </si>
+  <si>
+    <t>Horario de la actividad: Dia semana hora inicio:hora fin</t>
+  </si>
+  <si>
+    <t>Plazas</t>
+  </si>
+  <si>
+    <t>Número de asistentes máximo</t>
+  </si>
+  <si>
+    <t>Lugar</t>
+  </si>
+  <si>
+    <t>Lugar donde se desarrolla la actividad</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anotaciones sobre la actividad </t>
+  </si>
+  <si>
+    <t>1.2</t>
   </si>
 </sst>
 </file>
@@ -1141,13 +1165,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Autor" refreshedDate="44982.741576967594" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="97" xr:uid="{5F21C17C-50A9-476F-A6E7-8623CE251D6B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Autor" refreshedDate="45032.832464236111" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="101" xr:uid="{5F21C17C-50A9-476F-A6E7-8623CE251D6B}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabla4"/>
   </cacheSource>
   <cacheFields count="13">
     <cacheField name="Codigo" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="97"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="101"/>
     </cacheField>
     <cacheField name="Tabla" numFmtId="0">
       <sharedItems count="9">
@@ -1208,7 +1232,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="97">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="101">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -1243,6 +1267,36 @@
     <n v="3"/>
     <x v="0"/>
     <n v="3"/>
+    <s v="Horario"/>
+    <s v="Texto"/>
+    <n v="200"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <s v="Horario de la actividad: Dia semana hora inicio:hora fin"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="0"/>
+    <n v="4"/>
+    <s v="Precio"/>
+    <s v="Decimal"/>
+    <n v="8"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <s v="Precio de la actividad expresado en euros /mes"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <n v="5"/>
     <s v="Profesor"/>
     <s v="Texto"/>
     <n v="200"/>
@@ -1255,9 +1309,9 @@
     <s v="Nombre y apellidos del profesor de la actividad"/>
   </r>
   <r>
-    <n v="4"/>
+    <n v="6"/>
     <x v="0"/>
-    <n v="4"/>
+    <n v="6"/>
     <s v="TlfProfesor"/>
     <s v="Texto"/>
     <n v="12"/>
@@ -1270,24 +1324,54 @@
     <s v="Telefono del profesor de la actividad"/>
   </r>
   <r>
-    <n v="5"/>
+    <n v="7"/>
     <x v="0"/>
-    <n v="5"/>
-    <s v="Precio"/>
-    <s v="Decimal"/>
+    <n v="7"/>
+    <s v="Plazas"/>
+    <s v="Numero"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <s v="Número de asistentes máximo"/>
+  </r>
+  <r>
     <n v="8"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
     <x v="0"/>
-    <s v="Precio de la actividad expresado en euros /mes"/>
-  </r>
-  <r>
-    <n v="6"/>
+    <n v="8"/>
+    <s v="Lugar"/>
+    <s v="Texto"/>
+    <n v="200"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <s v="Lugar donde se desarrolla la actividad"/>
+  </r>
+  <r>
+    <n v="9"/>
     <x v="0"/>
-    <n v="6"/>
+    <n v="9"/>
+    <s v="Notas"/>
+    <s v="Texto"/>
+    <n v="200"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <s v="Anotaciones sobre la actividad "/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="10"/>
     <s v="Gastos"/>
     <s v="Decimal"/>
     <n v="8"/>
@@ -1300,9 +1384,9 @@
     <s v="Gastos de la actividad o costes mensuales"/>
   </r>
   <r>
-    <n v="7"/>
+    <n v="11"/>
     <x v="0"/>
-    <n v="7"/>
+    <n v="11"/>
     <s v="AddDate"/>
     <s v="Fecha/Hora"/>
     <n v="8"/>
@@ -1315,9 +1399,9 @@
     <s v="Fecha de alta de la actividad"/>
   </r>
   <r>
-    <n v="8"/>
+    <n v="12"/>
     <x v="0"/>
-    <n v="8"/>
+    <n v="12"/>
     <s v="LastUpdate"/>
     <s v="Fecha/Hora"/>
     <n v="8"/>
@@ -1330,9 +1414,9 @@
     <s v="Fecha de última actualización de la información"/>
   </r>
   <r>
-    <n v="9"/>
+    <n v="13"/>
     <x v="0"/>
-    <n v="9"/>
+    <n v="13"/>
     <s v="DelDate"/>
     <s v="Fecha/Hora"/>
     <n v="8"/>
@@ -1345,9 +1429,9 @@
     <s v="Fecha de baja en la actividad"/>
   </r>
   <r>
-    <n v="10"/>
+    <n v="14"/>
     <x v="0"/>
-    <n v="10"/>
+    <n v="14"/>
     <s v="FecInicio"/>
     <s v="Fecha/Hora"/>
     <n v="8"/>
@@ -1360,9 +1444,9 @@
     <s v="Fecha de Inicio de la actividad"/>
   </r>
   <r>
-    <n v="11"/>
+    <n v="15"/>
     <x v="0"/>
-    <n v="11"/>
+    <n v="15"/>
     <s v="FecFin"/>
     <s v="Fecha/Hora"/>
     <n v="8"/>
@@ -1375,7 +1459,7 @@
     <s v="Fecha de fin de la actividad"/>
   </r>
   <r>
-    <n v="12"/>
+    <n v="16"/>
     <x v="1"/>
     <n v="1"/>
     <s v="Id"/>
@@ -1390,7 +1474,7 @@
     <s v="Identificador único de registro"/>
   </r>
   <r>
-    <n v="13"/>
+    <n v="17"/>
     <x v="1"/>
     <n v="2"/>
     <s v="Fecha"/>
@@ -1405,7 +1489,7 @@
     <s v="Fecha apunte contable"/>
   </r>
   <r>
-    <n v="14"/>
+    <n v="18"/>
     <x v="1"/>
     <n v="3"/>
     <s v="Importe"/>
@@ -1420,7 +1504,7 @@
     <s v="Importe Apunte Contable"/>
   </r>
   <r>
-    <n v="15"/>
+    <n v="19"/>
     <x v="1"/>
     <n v="4"/>
     <s v="IdCategoria"/>
@@ -1435,7 +1519,7 @@
     <s v="Categoria de clasificacion del apunte"/>
   </r>
   <r>
-    <n v="16"/>
+    <n v="20"/>
     <x v="1"/>
     <n v="5"/>
     <s v="User"/>
@@ -1450,7 +1534,7 @@
     <s v="Código de usuario del sistema"/>
   </r>
   <r>
-    <n v="17"/>
+    <n v="21"/>
     <x v="1"/>
     <n v="6"/>
     <s v="Concepto"/>
@@ -1465,7 +1549,7 @@
     <s v="Concepto del apunte"/>
   </r>
   <r>
-    <n v="18"/>
+    <n v="22"/>
     <x v="1"/>
     <n v="7"/>
     <s v="IdRecibo"/>
@@ -1480,7 +1564,7 @@
     <s v="Identificador del recibo relacionado"/>
   </r>
   <r>
-    <n v="19"/>
+    <n v="23"/>
     <x v="1"/>
     <n v="8"/>
     <s v="NumSocio"/>
@@ -1495,7 +1579,7 @@
     <s v="Número de socio al que se le ha emitido el recibo"/>
   </r>
   <r>
-    <n v="20"/>
+    <n v="24"/>
     <x v="1"/>
     <n v="9"/>
     <s v="AddDate"/>
@@ -1510,7 +1594,7 @@
     <s v="Fecha de registro del apunte"/>
   </r>
   <r>
-    <n v="21"/>
+    <n v="25"/>
     <x v="1"/>
     <n v="10"/>
     <s v="LastUpdate"/>
@@ -1525,7 +1609,7 @@
     <s v="Fecha de última actualización de la información"/>
   </r>
   <r>
-    <n v="22"/>
+    <n v="26"/>
     <x v="1"/>
     <n v="11"/>
     <s v="DelDate"/>
@@ -1540,7 +1624,7 @@
     <s v="Fecha de baja de la información"/>
   </r>
   <r>
-    <n v="23"/>
+    <n v="27"/>
     <x v="2"/>
     <n v="1"/>
     <s v="Id"/>
@@ -1555,7 +1639,7 @@
     <s v="Identificador único de registro"/>
   </r>
   <r>
-    <n v="24"/>
+    <n v="28"/>
     <x v="2"/>
     <n v="2"/>
     <s v="Nombre"/>
@@ -1570,7 +1654,7 @@
     <s v="Nombre de la cateogria"/>
   </r>
   <r>
-    <n v="25"/>
+    <n v="29"/>
     <x v="2"/>
     <n v="3"/>
     <s v="TipoCat"/>
@@ -1585,7 +1669,7 @@
     <s v="Tipo de categoria"/>
   </r>
   <r>
-    <n v="26"/>
+    <n v="30"/>
     <x v="2"/>
     <n v="4"/>
     <s v="AddDate"/>
@@ -1600,7 +1684,7 @@
     <s v="Fecha de registro del apunte"/>
   </r>
   <r>
-    <n v="27"/>
+    <n v="31"/>
     <x v="2"/>
     <n v="5"/>
     <s v="LastUpdate"/>
@@ -1615,7 +1699,7 @@
     <s v="Fecha de última actualización de la información"/>
   </r>
   <r>
-    <n v="28"/>
+    <n v="32"/>
     <x v="2"/>
     <n v="6"/>
     <s v="DelDate"/>
@@ -1630,7 +1714,7 @@
     <s v="Fecha de baja de la información"/>
   </r>
   <r>
-    <n v="29"/>
+    <n v="33"/>
     <x v="3"/>
     <n v="1"/>
     <s v="Id"/>
@@ -1645,7 +1729,7 @@
     <s v="Identificador único de registro"/>
   </r>
   <r>
-    <n v="30"/>
+    <n v="34"/>
     <x v="3"/>
     <n v="2"/>
     <s v="DateTime"/>
@@ -1660,7 +1744,7 @@
     <s v="Fecha de registro"/>
   </r>
   <r>
-    <n v="31"/>
+    <n v="35"/>
     <x v="3"/>
     <n v="3"/>
     <s v="Action"/>
@@ -1675,7 +1759,7 @@
     <s v="Acción realizada en el sistema"/>
   </r>
   <r>
-    <n v="32"/>
+    <n v="36"/>
     <x v="3"/>
     <n v="4"/>
     <s v="ErrorLevel"/>
@@ -1690,7 +1774,7 @@
     <s v="Nivel de error: {Informational, debug, warning, error}"/>
   </r>
   <r>
-    <n v="33"/>
+    <n v="37"/>
     <x v="3"/>
     <n v="5"/>
     <s v="Message"/>
@@ -1705,7 +1789,7 @@
     <s v="Mensaje informativo / parametros de la acción"/>
   </r>
   <r>
-    <n v="34"/>
+    <n v="38"/>
     <x v="4"/>
     <n v="1"/>
     <s v="Id"/>
@@ -1720,7 +1804,7 @@
     <s v="Identificador único de registro"/>
   </r>
   <r>
-    <n v="35"/>
+    <n v="39"/>
     <x v="4"/>
     <n v="2"/>
     <s v="Nombre"/>
@@ -1735,7 +1819,7 @@
     <s v="Nombre de proveedor"/>
   </r>
   <r>
-    <n v="36"/>
+    <n v="40"/>
     <x v="4"/>
     <n v="3"/>
     <s v="AddDate"/>
@@ -1750,7 +1834,7 @@
     <s v="Fecha de alta de la información"/>
   </r>
   <r>
-    <n v="37"/>
+    <n v="41"/>
     <x v="4"/>
     <n v="4"/>
     <s v="DelDate"/>
@@ -1765,7 +1849,7 @@
     <s v="Fecha de baja de la información"/>
   </r>
   <r>
-    <n v="38"/>
+    <n v="42"/>
     <x v="4"/>
     <n v="5"/>
     <s v="CIF"/>
@@ -1780,7 +1864,7 @@
     <s v="Codigo de Identificación Fiscal"/>
   </r>
   <r>
-    <n v="39"/>
+    <n v="43"/>
     <x v="4"/>
     <n v="6"/>
     <s v="RelProveedor"/>
@@ -1795,7 +1879,7 @@
     <s v="Relación con el proveedor y comentarios "/>
   </r>
   <r>
-    <n v="40"/>
+    <n v="44"/>
     <x v="5"/>
     <n v="1"/>
     <s v="Id"/>
@@ -1810,7 +1894,7 @@
     <s v="Identificador único de registro"/>
   </r>
   <r>
-    <n v="41"/>
+    <n v="45"/>
     <x v="5"/>
     <n v="2"/>
     <s v="Concepto"/>
@@ -1825,7 +1909,7 @@
     <s v="Concepto de emisión del recibo"/>
   </r>
   <r>
-    <n v="42"/>
+    <n v="46"/>
     <x v="5"/>
     <n v="3"/>
     <s v="Importe"/>
@@ -1840,7 +1924,7 @@
     <s v="Importe del recibo"/>
   </r>
   <r>
-    <n v="43"/>
+    <n v="47"/>
     <x v="5"/>
     <n v="4"/>
     <s v="Fecha"/>
@@ -1855,7 +1939,7 @@
     <s v="Fecha de emisión del recibo"/>
   </r>
   <r>
-    <n v="44"/>
+    <n v="48"/>
     <x v="5"/>
     <n v="5"/>
     <s v="ChkPagado"/>
@@ -1870,7 +1954,7 @@
     <s v="Indicador de recibo pagado"/>
   </r>
   <r>
-    <n v="45"/>
+    <n v="49"/>
     <x v="5"/>
     <n v="6"/>
     <s v="IdSocio"/>
@@ -1885,7 +1969,7 @@
     <s v="Número de socio al que se le ha emitido el recibo"/>
   </r>
   <r>
-    <n v="46"/>
+    <n v="50"/>
     <x v="5"/>
     <n v="7"/>
     <s v="IdActividad"/>
@@ -1900,7 +1984,7 @@
     <s v="Identificador de la actividad relacionada"/>
   </r>
   <r>
-    <n v="47"/>
+    <n v="51"/>
     <x v="5"/>
     <n v="8"/>
     <s v="AddDate"/>
@@ -1915,7 +1999,7 @@
     <s v="Fecha de registro del recibo"/>
   </r>
   <r>
-    <n v="48"/>
+    <n v="52"/>
     <x v="5"/>
     <n v="9"/>
     <s v="LastUpdate"/>
@@ -1930,7 +2014,7 @@
     <s v="Fecha de última actualización de la información"/>
   </r>
   <r>
-    <n v="49"/>
+    <n v="53"/>
     <x v="5"/>
     <n v="10"/>
     <s v="DelDate"/>
@@ -1945,7 +2029,7 @@
     <s v="Fecha de baja de la información"/>
   </r>
   <r>
-    <n v="50"/>
+    <n v="54"/>
     <x v="6"/>
     <n v="1"/>
     <s v="Id"/>
@@ -1960,7 +2044,7 @@
     <s v="Identificador único de registro"/>
   </r>
   <r>
-    <n v="51"/>
+    <n v="55"/>
     <x v="6"/>
     <n v="2"/>
     <s v="NumSocio"/>
@@ -1975,7 +2059,7 @@
     <s v="Número de socio"/>
   </r>
   <r>
-    <n v="52"/>
+    <n v="56"/>
     <x v="6"/>
     <n v="3"/>
     <s v="Nombre"/>
@@ -1990,7 +2074,7 @@
     <s v="Nombre del socio"/>
   </r>
   <r>
-    <n v="53"/>
+    <n v="57"/>
     <x v="6"/>
     <n v="4"/>
     <s v="Apellidos"/>
@@ -2005,7 +2089,7 @@
     <s v="Apellidos del socio"/>
   </r>
   <r>
-    <n v="54"/>
+    <n v="58"/>
     <x v="6"/>
     <n v="5"/>
     <s v="DNI"/>
@@ -2020,7 +2104,7 @@
     <s v="Numero de Identificación personal del socio"/>
   </r>
   <r>
-    <n v="55"/>
+    <n v="59"/>
     <x v="6"/>
     <n v="6"/>
     <s v="Direccion"/>
@@ -2035,7 +2119,7 @@
     <s v="Dirección del socio, callebloque piso"/>
   </r>
   <r>
-    <n v="56"/>
+    <n v="60"/>
     <x v="6"/>
     <n v="7"/>
     <s v="Localidad"/>
@@ -2050,7 +2134,7 @@
     <s v="Localidad de la dirección del socio"/>
   </r>
   <r>
-    <n v="57"/>
+    <n v="61"/>
     <x v="6"/>
     <n v="8"/>
     <s v="CPostal"/>
@@ -2065,7 +2149,7 @@
     <s v="Codigo Postal de la localidad"/>
   </r>
   <r>
-    <n v="58"/>
+    <n v="62"/>
     <x v="6"/>
     <n v="9"/>
     <s v="Provincia"/>
@@ -2080,7 +2164,7 @@
     <s v="Provincia de la localidad"/>
   </r>
   <r>
-    <n v="59"/>
+    <n v="63"/>
     <x v="6"/>
     <n v="10"/>
     <s v="Pais"/>
@@ -2095,7 +2179,7 @@
     <s v="Pais de la dirección"/>
   </r>
   <r>
-    <n v="60"/>
+    <n v="64"/>
     <x v="6"/>
     <n v="11"/>
     <s v="Profesion"/>
@@ -2110,7 +2194,7 @@
     <s v="Profesión a la que se dedica el socio"/>
   </r>
   <r>
-    <n v="61"/>
+    <n v="65"/>
     <x v="6"/>
     <n v="12"/>
     <s v="TPDiscapacidad"/>
@@ -2125,7 +2209,7 @@
     <s v="Porcentaje de discapacidad Reconocido"/>
   </r>
   <r>
-    <n v="62"/>
+    <n v="66"/>
     <x v="6"/>
     <n v="13"/>
     <s v="TlfMovil"/>
@@ -2140,7 +2224,7 @@
     <s v="Número de telefono móvil"/>
   </r>
   <r>
-    <n v="63"/>
+    <n v="67"/>
     <x v="6"/>
     <n v="14"/>
     <s v="TlfFijo"/>
@@ -2155,7 +2239,7 @@
     <s v="Número de teléfono fijo"/>
   </r>
   <r>
-    <n v="64"/>
+    <n v="68"/>
     <x v="6"/>
     <n v="15"/>
     <s v="email"/>
@@ -2170,7 +2254,7 @@
     <s v="Dirección de correo electrónico"/>
   </r>
   <r>
-    <n v="65"/>
+    <n v="69"/>
     <x v="6"/>
     <n v="16"/>
     <s v="ChkRGPD"/>
@@ -2185,7 +2269,7 @@
     <s v="Acepto condiciones de aviso legal RGPD"/>
   </r>
   <r>
-    <n v="66"/>
+    <n v="70"/>
     <x v="6"/>
     <n v="17"/>
     <s v="ChkWhatsApp"/>
@@ -2200,7 +2284,7 @@
     <s v="Acepto la inclusión en grupos de Whatsapp"/>
   </r>
   <r>
-    <n v="67"/>
+    <n v="71"/>
     <x v="6"/>
     <n v="18"/>
     <s v="ChkImgOk"/>
@@ -2215,7 +2299,7 @@
     <s v="Acepto el uso de mi imagen en publicaciones de Acarmas"/>
   </r>
   <r>
-    <n v="68"/>
+    <n v="72"/>
     <x v="6"/>
     <n v="19"/>
     <s v="State"/>
@@ -2230,7 +2314,7 @@
     <s v="Situación del Socio"/>
   </r>
   <r>
-    <n v="69"/>
+    <n v="73"/>
     <x v="6"/>
     <n v="20"/>
     <s v="AddDate"/>
@@ -2245,7 +2329,7 @@
     <s v="Fecha de registro del Socio"/>
   </r>
   <r>
-    <n v="70"/>
+    <n v="74"/>
     <x v="6"/>
     <n v="21"/>
     <s v="LastUpdate"/>
@@ -2260,7 +2344,7 @@
     <s v="Fecha de última actualización de la información"/>
   </r>
   <r>
-    <n v="71"/>
+    <n v="75"/>
     <x v="6"/>
     <n v="22"/>
     <s v="DelDate"/>
@@ -2275,7 +2359,7 @@
     <s v="Fecha de baja en la asociación "/>
   </r>
   <r>
-    <n v="72"/>
+    <n v="76"/>
     <x v="6"/>
     <n v="23"/>
     <s v="MotivoDel"/>
@@ -2290,7 +2374,7 @@
     <s v="Motivo debaja de la asociación"/>
   </r>
   <r>
-    <n v="73"/>
+    <n v="77"/>
     <x v="6"/>
     <n v="24"/>
     <s v="PrsContacto"/>
@@ -2305,7 +2389,7 @@
     <s v="Persona de contacto del socio"/>
   </r>
   <r>
-    <n v="74"/>
+    <n v="78"/>
     <x v="6"/>
     <n v="25"/>
     <s v="TlfPrsContacto"/>
@@ -2320,7 +2404,7 @@
     <s v="Telefono de la persona de contacto"/>
   </r>
   <r>
-    <n v="75"/>
+    <n v="79"/>
     <x v="6"/>
     <n v="26"/>
     <s v="RelPrsContacto"/>
@@ -2335,7 +2419,7 @@
     <s v="Relación de la persona de contacto"/>
   </r>
   <r>
-    <n v="76"/>
+    <n v="80"/>
     <x v="6"/>
     <n v="27"/>
     <s v="DeudaPendiente"/>
@@ -2350,7 +2434,7 @@
     <s v="Importe de la deuda pendiente"/>
   </r>
   <r>
-    <n v="77"/>
+    <n v="81"/>
     <x v="6"/>
     <n v="28"/>
     <s v="ChkMemberDir"/>
@@ -2365,7 +2449,7 @@
     <s v="Indicador de pertenecer a la directiva"/>
   </r>
   <r>
-    <n v="78"/>
+    <n v="82"/>
     <x v="6"/>
     <n v="29"/>
     <s v="CargoMember"/>
@@ -2380,7 +2464,7 @@
     <s v="Cargo que desempeña en la directiva"/>
   </r>
   <r>
-    <n v="79"/>
+    <n v="83"/>
     <x v="6"/>
     <n v="30"/>
     <s v="FecN"/>
@@ -2395,7 +2479,7 @@
     <s v="Fecha de nacimento del socio"/>
   </r>
   <r>
-    <n v="80"/>
+    <n v="84"/>
     <x v="6"/>
     <n v="31"/>
     <s v="Tipo"/>
@@ -2410,7 +2494,7 @@
     <s v="Tipo de socio."/>
   </r>
   <r>
-    <n v="81"/>
+    <n v="85"/>
     <x v="7"/>
     <n v="1"/>
     <s v="Id"/>
@@ -2425,7 +2509,7 @@
     <s v="Identificador único de registro"/>
   </r>
   <r>
-    <n v="82"/>
+    <n v="86"/>
     <x v="7"/>
     <n v="2"/>
     <s v="User"/>
@@ -2440,7 +2524,7 @@
     <s v="Código de usuario del sistema"/>
   </r>
   <r>
-    <n v="83"/>
+    <n v="87"/>
     <x v="7"/>
     <n v="3"/>
     <s v="Password"/>
@@ -2455,7 +2539,7 @@
     <s v="Password encriptada"/>
   </r>
   <r>
-    <n v="84"/>
+    <n v="88"/>
     <x v="7"/>
     <n v="4"/>
     <s v="Nombre"/>
@@ -2470,7 +2554,7 @@
     <s v="Nombre del usuario"/>
   </r>
   <r>
-    <n v="85"/>
+    <n v="89"/>
     <x v="7"/>
     <n v="5"/>
     <s v="Apellidos"/>
@@ -2485,7 +2569,7 @@
     <s v="Apellidos del usuario"/>
   </r>
   <r>
-    <n v="86"/>
+    <n v="90"/>
     <x v="7"/>
     <n v="6"/>
     <s v="email"/>
@@ -2500,7 +2584,7 @@
     <s v="Correo electrónico"/>
   </r>
   <r>
-    <n v="87"/>
+    <n v="91"/>
     <x v="7"/>
     <n v="7"/>
     <s v="IndBlq"/>
@@ -2515,7 +2599,7 @@
     <s v="Indicador de usuario bloqueado"/>
   </r>
   <r>
-    <n v="88"/>
+    <n v="92"/>
     <x v="7"/>
     <n v="8"/>
     <s v="State"/>
@@ -2530,7 +2614,7 @@
     <s v="Situación del usuario"/>
   </r>
   <r>
-    <n v="89"/>
+    <n v="93"/>
     <x v="7"/>
     <n v="9"/>
     <s v="AddDate"/>
@@ -2545,7 +2629,7 @@
     <s v="Fecha de registro"/>
   </r>
   <r>
-    <n v="90"/>
+    <n v="94"/>
     <x v="7"/>
     <n v="10"/>
     <s v="ChgPasswDate"/>
@@ -2560,7 +2644,7 @@
     <s v="Fecha de cambio de password"/>
   </r>
   <r>
-    <n v="91"/>
+    <n v="95"/>
     <x v="7"/>
     <n v="11"/>
     <s v="LastLogon"/>
@@ -2575,7 +2659,7 @@
     <s v="Fecha de último logon"/>
   </r>
   <r>
-    <n v="92"/>
+    <n v="96"/>
     <x v="7"/>
     <n v="12"/>
     <s v="DelDate"/>
@@ -2590,7 +2674,7 @@
     <s v="Fecha de borrado de usuario"/>
   </r>
   <r>
-    <n v="93"/>
+    <n v="97"/>
     <x v="8"/>
     <n v="1"/>
     <s v="Id"/>
@@ -2605,7 +2689,7 @@
     <s v="Identificador único de registro"/>
   </r>
   <r>
-    <n v="94"/>
+    <n v="98"/>
     <x v="8"/>
     <n v="2"/>
     <s v="IdActividad"/>
@@ -2620,7 +2704,7 @@
     <s v="Identificador de la actividad relacionada"/>
   </r>
   <r>
-    <n v="95"/>
+    <n v="99"/>
     <x v="8"/>
     <n v="3"/>
     <s v="IdSocio"/>
@@ -2635,7 +2719,7 @@
     <s v="Número de socio que participa en una actividad"/>
   </r>
   <r>
-    <n v="96"/>
+    <n v="100"/>
     <x v="8"/>
     <n v="4"/>
     <s v="FecInicio"/>
@@ -2650,7 +2734,7 @@
     <s v="Fecha de Inicio de la actividad"/>
   </r>
   <r>
-    <n v="97"/>
+    <n v="101"/>
     <x v="8"/>
     <n v="5"/>
     <s v="FecFin"/>
@@ -2668,7 +2752,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E29C37B-5817-4534-BAF5-69D149A11458}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E29C37B-5817-4534-BAF5-69D149A11458}" name="TablaDinámica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
@@ -2818,8 +2902,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla4" displayName="Tabla4" ref="A2:M99" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="A2:M99" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla4" displayName="Tabla4" ref="A2:M103" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="A2:M103" xr:uid="{00000000-0009-0000-0100-000004000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Actividad"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Codigo"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Tabla"/>
@@ -3176,7 +3266,7 @@
   <dimension ref="B1:C10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3208,7 +3298,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -3225,7 +3315,7 @@
       </c>
       <c r="C6" s="8">
         <f ca="1">NOW()</f>
-        <v>44983.911836342595</v>
+        <v>45032.833474537038</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -3320,13 +3410,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C3" t="s">
         <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3334,13 +3424,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C4" t="s">
         <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3348,13 +3438,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C5" t="s">
         <v>164</v>
       </c>
       <c r="D5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3362,13 +3452,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
         <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3376,13 +3466,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C7" t="s">
         <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3390,13 +3480,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3404,13 +3494,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C9" t="s">
         <v>200</v>
       </c>
       <c r="D9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3418,13 +3508,13 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C10" t="s">
         <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3432,13 +3522,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C11" t="s">
         <v>219</v>
       </c>
       <c r="D11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3452,7 +3542,7 @@
         <v>181</v>
       </c>
       <c r="D12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3460,13 +3550,13 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C13" t="s">
         <v>218</v>
       </c>
       <c r="D13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3474,13 +3564,13 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C14" t="s">
         <v>213</v>
       </c>
       <c r="D14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3488,13 +3578,13 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C15" t="s">
         <v>183</v>
       </c>
       <c r="D15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3502,13 +3592,13 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C16" t="s">
         <v>201</v>
       </c>
       <c r="D16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3516,13 +3606,13 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C17" t="s">
         <v>197</v>
       </c>
       <c r="D17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3530,13 +3620,13 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C18" t="s">
         <v>148</v>
       </c>
       <c r="D18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3544,13 +3634,13 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C19" t="s">
         <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3558,13 +3648,13 @@
         <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C20" t="s">
         <v>151</v>
       </c>
       <c r="D20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3572,13 +3662,13 @@
         <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C21" t="s">
         <v>154</v>
       </c>
       <c r="D21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3586,13 +3676,13 @@
         <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C22" t="s">
         <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3600,13 +3690,13 @@
         <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C23" t="s">
         <v>174</v>
       </c>
       <c r="D23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3614,13 +3704,13 @@
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C24" t="s">
         <v>127</v>
       </c>
       <c r="D24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3628,13 +3718,13 @@
         <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C25" t="s">
         <v>170</v>
       </c>
       <c r="D25" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3642,13 +3732,13 @@
         <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C26" t="s">
         <v>123</v>
       </c>
       <c r="D26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3656,13 +3746,13 @@
         <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C27" t="s">
         <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3670,13 +3760,13 @@
         <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C28" t="s">
         <v>228</v>
       </c>
       <c r="D28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3684,13 +3774,13 @@
         <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C29" t="s">
         <v>160</v>
       </c>
       <c r="D29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3698,13 +3788,13 @@
         <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3712,13 +3802,13 @@
         <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C31" t="s">
         <v>137</v>
       </c>
       <c r="D31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3726,13 +3816,13 @@
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C32" t="s">
         <v>135</v>
       </c>
       <c r="D32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3740,13 +3830,13 @@
         <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C33" t="s">
         <v>172</v>
       </c>
       <c r="D33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3754,13 +3844,13 @@
         <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C34" t="s">
         <v>158</v>
       </c>
       <c r="D34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3768,13 +3858,13 @@
         <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C35" t="s">
         <v>132</v>
       </c>
       <c r="D35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3782,16 +3872,16 @@
         <v>57</v>
       </c>
       <c r="B36" t="s">
+        <v>284</v>
+      </c>
+      <c r="C36" t="s">
+        <v>283</v>
+      </c>
+      <c r="D36" t="s">
+        <v>281</v>
+      </c>
+      <c r="E36" t="s">
         <v>285</v>
-      </c>
-      <c r="C36" t="s">
-        <v>284</v>
-      </c>
-      <c r="D36" t="s">
-        <v>282</v>
-      </c>
-      <c r="E36" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -4043,16 +4133,16 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C54" t="s">
         <v>182</v>
       </c>
       <c r="D54" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E54" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -4060,16 +4150,16 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C55" t="s">
         <v>226</v>
       </c>
       <c r="D55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -4077,16 +4167,16 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C56" t="s">
         <v>162</v>
       </c>
       <c r="D56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -4094,16 +4184,16 @@
         <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C57" t="s">
         <v>116</v>
       </c>
       <c r="D57" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -4111,16 +4201,16 @@
         <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C58" t="s">
         <v>176</v>
       </c>
       <c r="D58" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E58" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -4128,16 +4218,16 @@
         <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C59" t="s">
         <v>179</v>
       </c>
       <c r="D59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E59" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -4156,7 +4246,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4288,10 +4378,10 @@
         <v>205</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -4394,13 +4484,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D11" t="s">
         <v>287</v>
-      </c>
-      <c r="C11" t="s">
-        <v>284</v>
-      </c>
-      <c r="D11" t="s">
-        <v>288</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -4428,7 +4518,7 @@
   <dimension ref="A3:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4444,26 +4534,26 @@
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G4" t="s">
         <v>276</v>
-      </c>
-      <c r="G4" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
         <v>130</v>
@@ -4483,22 +4573,22 @@
         <v>168</v>
       </c>
       <c r="B6" s="12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="12">
-        <v>44</v>
+        <v>446</v>
       </c>
       <c r="E6" s="12">
-        <v>427</v>
+        <v>627</v>
       </c>
       <c r="F6" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G6" s="12">
-        <v>471</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4664,7 +4754,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B14" s="12">
         <v>2</v>
@@ -4687,25 +4777,25 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B15" s="12">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C15" s="12">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="12">
-        <v>2778</v>
+        <v>3180</v>
       </c>
       <c r="E15" s="12">
-        <v>1313</v>
+        <v>1513</v>
       </c>
       <c r="F15" s="12">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G15" s="12">
-        <v>4091</v>
+        <v>4693</v>
       </c>
     </row>
   </sheetData>
@@ -4715,10 +4805,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M99"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53:D82"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4857,7 +4947,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>298</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
@@ -4869,7 +4959,7 @@
         <v>129</v>
       </c>
       <c r="M5" t="s">
-        <v>171</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -4883,19 +4973,19 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -4909,19 +4999,19 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="L7" t="s">
         <v>129</v>
       </c>
       <c r="M7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -4935,19 +5025,19 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -4961,19 +5051,19 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s">
-        <v>223</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -4987,19 +5077,19 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="L10" t="s">
         <v>130</v>
       </c>
       <c r="M10" t="s">
-        <v>150</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -5013,19 +5103,19 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="L11" t="s">
         <v>130</v>
       </c>
       <c r="M11" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -5039,19 +5129,19 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="11">
+        <v>133</v>
+      </c>
+      <c r="F12">
         <v>8</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M12" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -5065,7 +5155,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
         <v>41</v>
@@ -5074,10 +5164,10 @@
         <v>8</v>
       </c>
       <c r="L13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -5085,28 +5175,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -5114,13 +5201,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
         <v>41</v>
@@ -5128,14 +5215,11 @@
       <c r="F15">
         <v>8</v>
       </c>
-      <c r="H15" t="s">
-        <v>38</v>
-      </c>
       <c r="L15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M15" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -5143,25 +5227,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16">
+        <v>41</v>
+      </c>
+      <c r="F16" s="11">
         <v>8</v>
       </c>
       <c r="L16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M16" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -5169,28 +5253,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L17" t="s">
         <v>130</v>
       </c>
       <c r="M17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5198,25 +5282,28 @@
         <v>191</v>
       </c>
       <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18">
         <v>5</v>
       </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18">
-        <v>15</v>
+      <c r="G18">
+        <v>1</v>
       </c>
       <c r="L18" t="s">
         <v>129</v>
       </c>
       <c r="M18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5224,25 +5311,28 @@
         <v>191</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19">
-        <v>200</v>
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>38</v>
       </c>
       <c r="L19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5250,25 +5340,25 @@
         <v>191</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5276,10 +5366,10 @@
         <v>191</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="E21" t="s">
         <v>31</v>
@@ -5287,17 +5377,14 @@
       <c r="F21">
         <v>5</v>
       </c>
-      <c r="H21" t="s">
-        <v>38</v>
-      </c>
       <c r="L21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5305,25 +5392,25 @@
         <v>191</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L22" t="s">
         <v>129</v>
       </c>
       <c r="M22" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5331,25 +5418,25 @@
         <v>191</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s">
         <v>130</v>
       </c>
       <c r="M23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -5357,117 +5444,117 @@
         <v>191</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L24" t="s">
         <v>130</v>
       </c>
       <c r="M24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F25">
         <v>5</v>
       </c>
-      <c r="G25">
-        <v>1</v>
+      <c r="H25" t="s">
+        <v>38</v>
       </c>
       <c r="L25" t="s">
         <v>129</v>
       </c>
       <c r="M25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F26">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="L26" t="s">
         <v>129</v>
       </c>
       <c r="M26" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>279</v>
+        <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L27" t="s">
         <v>130</v>
       </c>
       <c r="M27" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
         <v>41</v>
@@ -5476,13 +5563,13 @@
         <v>8</v>
       </c>
       <c r="L28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M28" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5490,25 +5577,28 @@
         <v>194</v>
       </c>
       <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29">
         <v>5</v>
       </c>
-      <c r="D29" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29">
-        <v>8</v>
+      <c r="G29">
+        <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5516,65 +5606,62 @@
         <v>194</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="L30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M30" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>278</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
         <v>41</v>
@@ -5586,62 +5673,62 @@
         <v>129</v>
       </c>
       <c r="M32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F33">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="L33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5649,132 +5736,132 @@
         <v>52</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35">
-        <v>256</v>
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>216</v>
+        <v>52</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F36">
-        <v>5</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L36" t="s">
         <v>129</v>
       </c>
       <c r="M36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>216</v>
+        <v>52</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E37" t="s">
         <v>40</v>
       </c>
       <c r="F37">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L37" t="s">
         <v>129</v>
       </c>
       <c r="M37" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>216</v>
+        <v>52</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F38">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L38" t="s">
         <v>129</v>
       </c>
       <c r="M38" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>216</v>
+        <v>52</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F39">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="L39" t="s">
         <v>130</v>
       </c>
       <c r="M39" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5782,25 +5869,28 @@
         <v>216</v>
       </c>
       <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40">
         <v>5</v>
       </c>
-      <c r="D40" t="s">
-        <v>226</v>
-      </c>
-      <c r="E40" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40">
-        <v>12</v>
+      <c r="G40">
+        <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M40" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5808,132 +5898,129 @@
         <v>216</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>228</v>
+        <v>46</v>
       </c>
       <c r="E41" t="s">
         <v>40</v>
       </c>
       <c r="F41">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M41" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F42">
-        <v>5</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L42" t="s">
         <v>129</v>
       </c>
       <c r="M42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F43">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="L43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="E44" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="F44">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M44" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="L45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M45" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5941,25 +6028,28 @@
         <v>178</v>
       </c>
       <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46">
         <v>5</v>
       </c>
-      <c r="D46" t="s">
-        <v>182</v>
-      </c>
-      <c r="E46" t="s">
-        <v>141</v>
-      </c>
-      <c r="F46">
+      <c r="G46">
         <v>1</v>
       </c>
       <c r="L46" t="s">
         <v>129</v>
       </c>
       <c r="M46" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5967,28 +6057,25 @@
         <v>178</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>278</v>
+        <v>30</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F47">
-        <v>5</v>
-      </c>
-      <c r="H47" t="s">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="L47" t="s">
         <v>129</v>
       </c>
       <c r="M47" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5996,25 +6083,25 @@
         <v>178</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M48" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -6022,10 +6109,10 @@
         <v>178</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="E49" t="s">
         <v>41</v>
@@ -6037,10 +6124,10 @@
         <v>129</v>
       </c>
       <c r="M49" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -6048,25 +6135,25 @@
         <v>178</v>
       </c>
       <c r="C50">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="F50">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M50" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -6074,147 +6161,132 @@
         <v>178</v>
       </c>
       <c r="C51">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F51">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="H51" t="s">
+        <v>38</v>
       </c>
       <c r="L51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M51" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F52">
         <v>3</v>
       </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
       <c r="L52" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F53">
-        <v>5</v>
-      </c>
-      <c r="H53" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="L53" t="s">
         <v>129</v>
       </c>
       <c r="M53" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F54">
-        <v>50</v>
-      </c>
-      <c r="I54" t="s">
-        <v>38</v>
-      </c>
-      <c r="J54" t="s">
-        <v>195</v>
+        <v>8</v>
       </c>
       <c r="L54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M54" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F55">
-        <v>100</v>
-      </c>
-      <c r="I55" t="s">
-        <v>195</v>
-      </c>
-      <c r="J55" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="L55" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M55" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -6222,25 +6294,28 @@
         <v>111</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="E56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F56">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
       </c>
       <c r="L56" t="s">
         <v>129</v>
       </c>
       <c r="M56" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -6248,25 +6323,28 @@
         <v>111</v>
       </c>
       <c r="C57">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F57">
-        <v>200</v>
+        <v>5</v>
+      </c>
+      <c r="H57" t="s">
+        <v>38</v>
       </c>
       <c r="L57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M57" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -6274,25 +6352,31 @@
         <v>111</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="E58" t="s">
         <v>40</v>
       </c>
       <c r="F58">
-        <v>200</v>
+        <v>50</v>
+      </c>
+      <c r="I58" t="s">
+        <v>38</v>
+      </c>
+      <c r="J58" t="s">
+        <v>195</v>
       </c>
       <c r="L58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M58" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -6300,25 +6384,31 @@
         <v>111</v>
       </c>
       <c r="C59">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F59">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="I59" t="s">
+        <v>195</v>
+      </c>
+      <c r="J59" t="s">
+        <v>38</v>
       </c>
       <c r="L59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M59" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -6326,25 +6416,25 @@
         <v>111</v>
       </c>
       <c r="C60">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E60" t="s">
         <v>40</v>
       </c>
       <c r="F60">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="L60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M60" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -6352,10 +6442,10 @@
         <v>111</v>
       </c>
       <c r="C61">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E61" t="s">
         <v>40</v>
@@ -6367,10 +6457,10 @@
         <v>130</v>
       </c>
       <c r="M61" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -6378,10 +6468,10 @@
         <v>111</v>
       </c>
       <c r="C62">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E62" t="s">
         <v>40</v>
@@ -6393,10 +6483,10 @@
         <v>130</v>
       </c>
       <c r="M62" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -6404,25 +6494,25 @@
         <v>111</v>
       </c>
       <c r="C63">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="E63" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="F63">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L63" t="s">
         <v>130</v>
       </c>
       <c r="M63" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -6430,25 +6520,25 @@
         <v>111</v>
       </c>
       <c r="C64">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E64" t="s">
         <v>40</v>
       </c>
       <c r="F64">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="L64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M64" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -6456,25 +6546,25 @@
         <v>111</v>
       </c>
       <c r="C65">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E65" t="s">
         <v>40</v>
       </c>
       <c r="F65">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="L65" t="s">
         <v>130</v>
       </c>
       <c r="M65" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -6482,25 +6572,25 @@
         <v>111</v>
       </c>
       <c r="C66">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="E66" t="s">
         <v>40</v>
       </c>
       <c r="F66">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="L66" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -6508,25 +6598,25 @@
         <v>111</v>
       </c>
       <c r="C67">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E67" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L67" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M67" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -6534,25 +6624,25 @@
         <v>111</v>
       </c>
       <c r="C68">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E68" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L68" t="s">
         <v>129</v>
       </c>
       <c r="M68" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -6560,25 +6650,25 @@
         <v>111</v>
       </c>
       <c r="C69">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E69" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L69" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M69" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -6586,25 +6676,25 @@
         <v>111</v>
       </c>
       <c r="C70">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E70" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="L70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M70" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -6612,25 +6702,25 @@
         <v>111</v>
       </c>
       <c r="C71">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="E71" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="F71">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L71" t="s">
         <v>129</v>
       </c>
       <c r="M71" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -6638,25 +6728,25 @@
         <v>111</v>
       </c>
       <c r="C72">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D72" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E72" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="F72">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L72" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M72" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -6664,25 +6754,25 @@
         <v>111</v>
       </c>
       <c r="C73">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="E73" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="F73">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M73" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6690,25 +6780,25 @@
         <v>111</v>
       </c>
       <c r="C74">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F74">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="L74" t="s">
         <v>130</v>
       </c>
       <c r="M74" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -6716,25 +6806,25 @@
         <v>111</v>
       </c>
       <c r="C75">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="E75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F75">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="L75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M75" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6742,25 +6832,25 @@
         <v>111</v>
       </c>
       <c r="C76">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D76" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F76">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L76" t="s">
         <v>130</v>
       </c>
       <c r="M76" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -6768,25 +6858,25 @@
         <v>111</v>
       </c>
       <c r="C77">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D77" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="E77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F77">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="L77" t="s">
         <v>130</v>
       </c>
       <c r="M77" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -6794,25 +6884,25 @@
         <v>111</v>
       </c>
       <c r="C78">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D78" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E78" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="F78">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="L78" t="s">
         <v>130</v>
       </c>
       <c r="M78" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -6820,25 +6910,25 @@
         <v>111</v>
       </c>
       <c r="C79">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D79" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E79" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="L79" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M79" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -6846,25 +6936,25 @@
         <v>111</v>
       </c>
       <c r="C80">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D80" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E80" t="s">
         <v>40</v>
       </c>
       <c r="F80">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="L80" t="s">
         <v>130</v>
       </c>
       <c r="M80" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -6872,25 +6962,25 @@
         <v>111</v>
       </c>
       <c r="C81">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="E81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F81">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="L81" t="s">
         <v>130</v>
       </c>
       <c r="M81" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -6898,135 +6988,129 @@
         <v>111</v>
       </c>
       <c r="C82">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L82" t="s">
         <v>130</v>
       </c>
       <c r="M82" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D83" t="s">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="E83" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="F83">
-        <v>3</v>
-      </c>
-      <c r="G83">
         <v>1</v>
       </c>
       <c r="L83" t="s">
         <v>129</v>
       </c>
       <c r="M83" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D84" t="s">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="E84" t="s">
         <v>40</v>
       </c>
       <c r="F84">
-        <v>15</v>
-      </c>
-      <c r="H84" t="s">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="L84" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M84" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D85" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
       <c r="E85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F85">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L85" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M85" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D86" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E86" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F86">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="L86" t="s">
         <v>130</v>
       </c>
       <c r="M86" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -7034,25 +7118,28 @@
         <v>43</v>
       </c>
       <c r="C87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F87">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
       </c>
       <c r="L87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M87" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -7060,25 +7147,28 @@
         <v>43</v>
       </c>
       <c r="C88">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E88" t="s">
         <v>40</v>
       </c>
       <c r="F88">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="H88" t="s">
+        <v>38</v>
       </c>
       <c r="L88" t="s">
         <v>129</v>
       </c>
       <c r="M88" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -7086,25 +7176,25 @@
         <v>43</v>
       </c>
       <c r="C89">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E89" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F89">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L89" t="s">
         <v>129</v>
       </c>
       <c r="M89" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -7112,25 +7202,25 @@
         <v>43</v>
       </c>
       <c r="C90">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E90" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F90">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="L90" t="s">
         <v>130</v>
       </c>
       <c r="M90" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -7138,25 +7228,25 @@
         <v>43</v>
       </c>
       <c r="C91">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D91" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F91">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="L91" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M91" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -7164,25 +7254,25 @@
         <v>43</v>
       </c>
       <c r="C92">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="E92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F92">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="L92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M92" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -7190,25 +7280,25 @@
         <v>43</v>
       </c>
       <c r="C93">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E93" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F93">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L93" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M93" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -7216,163 +7306,267 @@
         <v>43</v>
       </c>
       <c r="C94">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E94" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F94">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L94" t="s">
         <v>130</v>
       </c>
       <c r="M94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>284</v>
+        <v>43</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="E95" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F95">
-        <v>3</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L95" t="s">
         <v>129</v>
       </c>
       <c r="M95" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>284</v>
+        <v>43</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="E96" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F96">
-        <v>3</v>
-      </c>
-      <c r="H96" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="L96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M96" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>284</v>
+        <v>43</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>278</v>
+        <v>73</v>
       </c>
       <c r="E97" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F97">
-        <v>5</v>
-      </c>
-      <c r="H97" t="s">
-        <v>195</v>
+        <v>8</v>
       </c>
       <c r="L97" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M97" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>284</v>
+        <v>43</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="E98" t="s">
         <v>41</v>
       </c>
-      <c r="F98" s="11">
+      <c r="F98">
         <v>8</v>
-      </c>
-      <c r="H98" t="s">
-        <v>290</v>
       </c>
       <c r="L98" t="s">
         <v>130</v>
       </c>
       <c r="M98" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" t="s">
+        <v>39</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="L99" t="s">
+        <v>129</v>
+      </c>
+      <c r="M99" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>283</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>183</v>
+      </c>
+      <c r="E100" t="s">
+        <v>31</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="H100" t="s">
+        <v>38</v>
+      </c>
+      <c r="L100" t="s">
+        <v>129</v>
+      </c>
+      <c r="M100" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>283</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101" t="s">
+        <v>277</v>
+      </c>
+      <c r="E101" t="s">
+        <v>31</v>
+      </c>
+      <c r="F101">
         <v>5</v>
       </c>
-      <c r="D99" t="s">
+      <c r="H101" t="s">
+        <v>195</v>
+      </c>
+      <c r="L101" t="s">
+        <v>129</v>
+      </c>
+      <c r="M101" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>283</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102" t="s">
+        <v>218</v>
+      </c>
+      <c r="E102" t="s">
+        <v>41</v>
+      </c>
+      <c r="F102" s="11">
+        <v>8</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="L102" t="s">
+        <v>130</v>
+      </c>
+      <c r="M102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>283</v>
+      </c>
+      <c r="C103">
+        <v>5</v>
+      </c>
+      <c r="D103" t="s">
         <v>219</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E103" t="s">
         <v>41</v>
       </c>
-      <c r="F99">
+      <c r="F103">
         <v>8</v>
       </c>
-      <c r="L99" t="s">
+      <c r="L103" t="s">
         <v>130</v>
       </c>
-      <c r="M99" t="s">
+      <c r="M103" t="s">
         <v>222</v>
       </c>
     </row>
@@ -7597,13 +7791,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -7611,13 +7805,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/Docu/Modelo_ee_Informacion.xlsx
+++ b/Docu/Modelo_ee_Informacion.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAEDE4A-6AC6-4706-B5A6-18812AD74DF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E0AD5E-D81F-4279-8D05-0A1438947094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15975" windowHeight="8070" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1070,7 +1079,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyBorder="1"/>
@@ -1083,7 +1092,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2784,7 +2792,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla2" displayName="Tabla2" ref="A2:E59" totalsRowShown="0" tableBorderDxfId="3">
   <autoFilter ref="A2:E59" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState ref="A3:E59">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E59">
     <sortCondition descending="1" ref="D2:D59"/>
   </sortState>
   <tableColumns count="5">
@@ -2801,7 +2809,7 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:G11" totalsRowShown="0" tableBorderDxfId="2">
   <autoFilter ref="A2:G11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A3:G10">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G10">
     <sortCondition ref="A2:A10"/>
   </sortState>
   <tableColumns count="7">
@@ -3176,18 +3184,18 @@
   <dimension ref="B1:C10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3195,7 +3203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3203,7 +3211,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
@@ -3211,7 +3219,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
@@ -3219,16 +3227,16 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="8">
         <f ca="1">NOW()</f>
-        <v>44983.911836342595</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>45026.755649999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
@@ -3236,7 +3244,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
@@ -3244,7 +3252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
@@ -3252,7 +3260,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
@@ -3276,29 +3284,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3315,7 +3323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
@@ -3329,7 +3337,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6</v>
       </c>
@@ -3343,7 +3351,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -3357,7 +3365,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -3371,7 +3379,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -3385,7 +3393,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12</v>
       </c>
@@ -3399,7 +3407,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>13</v>
       </c>
@@ -3413,7 +3421,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>17</v>
       </c>
@@ -3427,7 +3435,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -3441,7 +3449,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -3455,7 +3463,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -3469,7 +3477,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -3483,7 +3491,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>27</v>
       </c>
@@ -3497,7 +3505,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>28</v>
       </c>
@@ -3511,7 +3519,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>29</v>
       </c>
@@ -3525,7 +3533,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>33</v>
       </c>
@@ -3539,7 +3547,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>34</v>
       </c>
@@ -3553,7 +3561,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>37</v>
       </c>
@@ -3567,7 +3575,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>39</v>
       </c>
@@ -3581,7 +3589,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>40</v>
       </c>
@@ -3595,7 +3603,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>42</v>
       </c>
@@ -3609,7 +3617,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>43</v>
       </c>
@@ -3623,7 +3631,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>44</v>
       </c>
@@ -3637,7 +3645,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>45</v>
       </c>
@@ -3651,7 +3659,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>46</v>
       </c>
@@ -3665,7 +3673,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>47</v>
       </c>
@@ -3679,7 +3687,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>48</v>
       </c>
@@ -3693,7 +3701,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>50</v>
       </c>
@@ -3707,7 +3715,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>51</v>
       </c>
@@ -3721,7 +3729,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>52</v>
       </c>
@@ -3735,7 +3743,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>53</v>
       </c>
@@ -3749,7 +3757,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>54</v>
       </c>
@@ -3763,7 +3771,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>55</v>
       </c>
@@ -3777,7 +3785,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>57</v>
       </c>
@@ -3794,7 +3802,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -3808,7 +3816,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -3822,7 +3830,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -3836,7 +3844,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -3850,7 +3858,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>14</v>
       </c>
@@ -3864,7 +3872,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>15</v>
       </c>
@@ -3878,7 +3886,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>19</v>
       </c>
@@ -3892,7 +3900,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>20</v>
       </c>
@@ -3906,7 +3914,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>26</v>
       </c>
@@ -3920,7 +3928,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>31</v>
       </c>
@@ -3934,7 +3942,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>32</v>
       </c>
@@ -3948,7 +3956,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>35</v>
       </c>
@@ -3965,7 +3973,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>36</v>
       </c>
@@ -3979,7 +3987,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>38</v>
       </c>
@@ -3993,7 +4001,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>41</v>
       </c>
@@ -4007,7 +4015,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>49</v>
       </c>
@@ -4021,7 +4029,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>56</v>
       </c>
@@ -4038,7 +4046,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>8</v>
       </c>
@@ -4055,7 +4063,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>11</v>
       </c>
@@ -4072,7 +4080,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>16</v>
       </c>
@@ -4089,7 +4097,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>18</v>
       </c>
@@ -4106,7 +4114,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>25</v>
       </c>
@@ -4123,7 +4131,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>30</v>
       </c>
@@ -4159,29 +4167,29 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4204,7 +4212,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4227,7 +4235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4250,7 +4258,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4274,7 +4282,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4297,7 +4305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4320,7 +4328,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4343,7 +4351,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4366,7 +4374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4389,7 +4397,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4431,23 +4439,23 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>271</v>
       </c>
@@ -4461,8 +4469,8 @@
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>272</v>
       </c>
       <c r="B5" t="s">
@@ -4478,233 +4486,233 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6">
         <v>44</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6">
         <v>427</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6">
         <v>11</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6">
         <v>471</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7">
         <v>226</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7">
         <v>49</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7">
         <v>11</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7">
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8">
         <v>18</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8">
         <v>113</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8">
         <v>6</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9">
         <v>256</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9">
         <v>63</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9">
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10">
         <v>220</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10">
         <v>113</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10">
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11">
         <v>7</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11">
         <v>19</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11">
         <v>235</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11">
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12">
         <v>19</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12">
         <v>12</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12">
         <v>1873</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12">
         <v>224</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12">
         <v>31</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12">
         <v>2097</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13">
         <v>6</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13">
         <v>6</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13">
         <v>106</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13">
         <v>78</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13">
         <v>12</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13">
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14">
         <v>16</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14">
         <v>11</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14">
         <v>5</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15">
         <v>47</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15">
         <v>50</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15">
         <v>2778</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15">
         <v>1313</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15">
         <v>97</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15">
         <v>4091</v>
       </c>
     </row>
@@ -4717,40 +4725,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53:D82"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:13" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4791,7 +4799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4820,7 +4828,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4846,7 +4854,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4872,7 +4880,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4898,7 +4906,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4924,7 +4932,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4950,7 +4958,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4976,7 +4984,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5002,7 +5010,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5028,7 +5036,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5054,7 +5062,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5080,7 +5088,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5109,7 +5117,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5138,7 +5146,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5164,7 +5172,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5190,7 +5198,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5216,7 +5224,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5242,7 +5250,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5268,7 +5276,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5297,7 +5305,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5323,7 +5331,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5349,7 +5357,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -5375,7 +5383,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -5404,7 +5412,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5430,7 +5438,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5456,7 +5464,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5482,7 +5490,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5508,7 +5516,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5534,7 +5542,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5563,7 +5571,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5589,7 +5597,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -5615,7 +5623,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5641,7 +5649,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5667,7 +5675,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5696,7 +5704,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5722,7 +5730,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5748,7 +5756,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5774,7 +5782,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5800,7 +5808,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5826,7 +5834,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5855,7 +5863,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5881,7 +5889,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5907,7 +5915,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5933,7 +5941,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5959,7 +5967,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5988,7 +5996,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -6014,7 +6022,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -6040,7 +6048,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -6066,7 +6074,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -6092,7 +6100,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -6121,7 +6129,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -6150,7 +6158,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -6182,7 +6190,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -6214,7 +6222,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -6240,7 +6248,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -6266,7 +6274,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -6292,7 +6300,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -6318,7 +6326,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -6344,7 +6352,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -6370,7 +6378,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -6396,7 +6404,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -6422,7 +6430,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -6448,7 +6456,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -6474,7 +6482,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -6500,7 +6508,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -6526,7 +6534,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -6552,7 +6560,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -6578,7 +6586,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -6604,7 +6612,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -6630,7 +6638,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -6656,7 +6664,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -6682,7 +6690,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6708,7 +6716,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -6734,7 +6742,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6760,7 +6768,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -6786,7 +6794,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -6812,7 +6820,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -6838,7 +6846,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -6864,7 +6872,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -6890,7 +6898,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -6916,7 +6924,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -6945,7 +6953,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -6974,7 +6982,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -7000,7 +7008,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -7026,7 +7034,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -7052,7 +7060,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -7078,7 +7086,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -7104,7 +7112,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -7130,7 +7138,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -7156,7 +7164,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -7182,7 +7190,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -7208,7 +7216,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -7234,7 +7242,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -7263,7 +7271,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7292,7 +7300,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -7321,7 +7329,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -7350,7 +7358,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -7392,25 +7400,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -7424,7 +7432,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7438,7 +7446,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7452,7 +7460,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7466,7 +7474,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7480,7 +7488,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7494,7 +7502,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7508,7 +7516,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -7522,7 +7530,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -7536,7 +7544,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -7550,7 +7558,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -7564,7 +7572,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -7578,7 +7586,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -7592,7 +7600,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -7606,7 +7614,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
